--- a/CRCLaw.xlsx
+++ b/CRCLaw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E70C5A8-5ADE-483D-8D0A-56A74C784CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325AA257-A91F-444D-A905-AED11C2A4F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9768" yWindow="-120" windowWidth="13164" windowHeight="12096" xr2:uid="{20D8C356-CA61-4866-990A-CFFBE97443AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20D8C356-CA61-4866-990A-CFFBE97443AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Attributen</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Aantal schepen</t>
   </si>
   <si>
-    <t>plaats ship</t>
-  </si>
-  <si>
     <t>bord</t>
   </si>
   <si>
@@ -108,6 +105,39 @@
   <si>
     <t>Elk speler heeft 1 beurt om de andere speler
 aan te vallen</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>vijand</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>status van het ship</t>
+  </si>
+  <si>
+    <t>Raket</t>
+  </si>
+  <si>
+    <t>Zeeslag main</t>
+  </si>
+  <si>
+    <t>bomb (has been planted)</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
 </sst>
 </file>
@@ -285,7 +315,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -293,26 +336,13 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -321,12 +351,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -351,12 +385,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66FBA17-F892-4FF3-B6E0-CAB23C947C12}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,76 +718,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="17"/>
+      <c r="D2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="23"/>
+      <c r="D10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -802,113 +835,145 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="D19" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="D18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="6" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="1"/>
-    </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="2"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="2"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B9"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B9"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -916,15 +981,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A444A9CE5D03248B9B29E373F22C7A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c474c4396a8862bd569943eb20cf3a19">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2660787d-0a3f-478f-b0f8-492cf3c7ba0a" xmlns:ns4="64c1798a-9d4c-4d8f-8ad9-9fd336812303" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8991a38c0e0254479a81c5501213575" ns3:_="" ns4:_="">
     <xsd:import namespace="2660787d-0a3f-478f-b0f8-492cf3c7ba0a"/>
@@ -1303,6 +1359,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1355,14 +1420,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A565B5F5-2D74-4DCA-A047-A365A5B96D56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BE66DC1-43CD-414D-97F2-E5F868C6421D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1377,6 +1434,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A565B5F5-2D74-4DCA-A047-A365A5B96D56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/CRCLaw.xlsx
+++ b/CRCLaw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325AA257-A91F-444D-A905-AED11C2A4F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EFEF99-E969-443F-9F35-8E636502CFD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20D8C356-CA61-4866-990A-CFFBE97443AA}"/>
+    <workbookView xWindow="36" yWindow="2172" windowWidth="13272" windowHeight="10872" xr2:uid="{20D8C356-CA61-4866-990A-CFFBE97443AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Attributen</t>
   </si>
@@ -49,21 +49,6 @@
   </si>
   <si>
     <t>Hoofdverantwoordelijkheid</t>
-  </si>
-  <si>
-    <t>rooster</t>
-  </si>
-  <si>
-    <t>Ontvangt per beurt een schijfje van een speler</t>
-  </si>
-  <si>
-    <t>Speler, Schijf</t>
-  </si>
-  <si>
-    <t>Doet 4 op een rij controle na elke beurt</t>
-  </si>
-  <si>
-    <t>SpelRooster (zichzelf)</t>
   </si>
   <si>
     <t>Ship</t>
@@ -73,71 +58,77 @@
 Elke schip heeft bepaalde levens bv. Carrier (5 levens en neemt ook 5 plaatsen van het bord),  Battleship (4 levens neemt dan 4 plaatsen van het bord), </t>
   </si>
   <si>
-    <t>lijst van schepen</t>
-  </si>
-  <si>
-    <t>Schepen</t>
-  </si>
-  <si>
     <t>lengte</t>
   </si>
   <si>
     <t>lengte van het ship</t>
   </si>
   <si>
-    <t>Aantal schepen</t>
-  </si>
-  <si>
-    <t>bord</t>
-  </si>
-  <si>
-    <t>lengte en breedte van het bord</t>
-  </si>
-  <si>
-    <t>game end</t>
-  </si>
-  <si>
-    <t>het spel beindigt als er geen schepen meer zijn</t>
-  </si>
-  <si>
     <t>Beurten</t>
   </si>
   <si>
-    <t>Elk speler heeft 1 beurt om de andere speler
-aan te vallen</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>board</t>
-  </si>
-  <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>vijand</t>
-  </si>
-  <si>
-    <t>enemy</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>status van het ship</t>
-  </si>
-  <si>
-    <t>Raket</t>
-  </si>
-  <si>
-    <t>Zeeslag main</t>
-  </si>
-  <si>
-    <t>bomb (has been planted)</t>
-  </si>
-  <si>
-    <t>main</t>
+    <t>Aantal schepen en welke soort</t>
+  </si>
+  <si>
+    <t>je plaats het schip horziontaal of verticaal van begin of je kan het
+verplaatsen als je het verkeerd hebt geplaatst. maar als het spel begint dan kan je het niet meer verplaatsen</t>
+  </si>
+  <si>
+    <t>Elke speler heeft één beurt. Dus als elke speler zijn beurt gebreukt om zijn tegenstander aan te vallen moet hij zijn beurt afwachten todat de andere speler zijn beurt heeft gebruikt.</t>
+  </si>
+  <si>
+    <t>Elk speler heeft 1 beurt</t>
+  </si>
+  <si>
+    <t>Speler/Enemy</t>
+  </si>
+  <si>
+    <t>Alle Input</t>
+  </si>
+  <si>
+    <t>De "Main" klass neemt alle klassen (bord,player,ship, etc..) en voert het uit alle Attributen en Methoden van de andere klassen en voert dit uit</t>
+  </si>
+  <si>
+    <t>Player/Enemy</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>Player of Enemy kunnen ieders om de beurt maar 1 keer aanvallen</t>
+  </si>
+  <si>
+    <t>De Player/Enemy heeft keuze uit aantal Ships
+Om op het board te plaatsen</t>
+  </si>
+  <si>
+    <t>5 schepen in totaal</t>
+  </si>
+  <si>
+    <t>Ships</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>matrix (array van array) van vakjes</t>
+  </si>
+  <si>
+    <t>1 of 2 Player(s)</t>
+  </si>
+  <si>
+    <t>Per beurt kan de Player/Enemy aanvallen</t>
+  </si>
+  <si>
+    <t>Elke Player heeft een beurt als ze hun beurt
+gebruikt hebben moeten ze wachten tot de andere Player zijn beurt heeft gebruikt.</t>
+  </si>
+  <si>
+    <t>Het speelveld voor Zeeslag is 10x10
+je kan dit met Draw</t>
+  </si>
+  <si>
+    <t>Player</t>
   </si>
 </sst>
 </file>
@@ -342,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -354,13 +345,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -385,12 +376,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -705,9 +697,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66FBA17-F892-4FF3-B6E0-CAB23C947C12}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -715,17 +707,24 @@
   <cols>
     <col min="1" max="2" width="38.21875" customWidth="1"/>
     <col min="4" max="5" width="38.21875" customWidth="1"/>
+    <col min="7" max="8" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="D1" s="14"/>
+      <c r="D1" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -734,62 +733,88 @@
         <v>5</v>
       </c>
       <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="19"/>
-      <c r="D3" s="18"/>
+      <c r="D3" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="D7" s="18"/>
       <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="D10" s="22" t="s">
+      <c r="B10" s="13"/>
+      <c r="D10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="13"/>
+      <c r="G10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -802,85 +827,117 @@
       <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="G11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="G13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="G15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="8"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="10"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="E18" s="11"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="D19" s="22" t="s">
+      <c r="B19" s="13"/>
+      <c r="D19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="13"/>
+      <c r="G19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -893,87 +950,106 @@
       <c r="E20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="G20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>9</v>
+    </row>
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>28</v>
       </c>
+      <c r="H22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="G23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1"/>
       <c r="D24" s="6"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1"/>
       <c r="D25" s="6"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2"/>
       <c r="D26" s="7"/>
       <c r="E26" s="2"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B9"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -981,6 +1057,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A444A9CE5D03248B9B29E373F22C7A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c474c4396a8862bd569943eb20cf3a19">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2660787d-0a3f-478f-b0f8-492cf3c7ba0a" xmlns:ns4="64c1798a-9d4c-4d8f-8ad9-9fd336812303" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8991a38c0e0254479a81c5501213575" ns3:_="" ns4:_="">
     <xsd:import namespace="2660787d-0a3f-478f-b0f8-492cf3c7ba0a"/>
@@ -1359,15 +1444,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1420,6 +1496,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A565B5F5-2D74-4DCA-A047-A365A5B96D56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BE66DC1-43CD-414D-97F2-E5F868C6421D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1434,14 +1518,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A565B5F5-2D74-4DCA-A047-A365A5B96D56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
